--- a/Assignment3.xlsx
+++ b/Assignment3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a40034702306134/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaya\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{D3D1C9C9-A183-4DF8-BF6E-D7E2C80DBB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A81A9DBA-92F6-4FAE-A8B9-66B96E692584}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489F8F8-CBBE-43A4-A4A4-1B363B326597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35728F74-2793-4E80-92ED-E28BA4DAFE92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>LG</t>
   </si>
@@ -160,15 +160,202 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>median price imputation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to replace missing values with the median of available product prices.</t>
+    </r>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Removing Duplicates</t>
+  </si>
+  <si>
+    <t>Handling Empty Rows and Columns</t>
+  </si>
+  <si>
+    <t>Dealing with Missing Values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Applied an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imputation strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to handle missing prices:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Checked for missing values in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Price' column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Scanned for and deleted any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>completely empty rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the dataset.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Identified columns with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>irrelevant or redundant data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and removed them for better efficiency.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checked for duplicate rows based on the entire dataset.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Removed all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exact duplicate records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to avoid redundancy.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -234,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -261,16 +448,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -305,24 +504,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D0A6911-06A7-4838-BD0A-A8DDCF579776}" name="Table14" displayName="Table14" ref="A29:F50" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A29:F50" xr:uid="{6D0A6911-06A7-4838-BD0A-A8DDCF579776}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D0A6911-06A7-4838-BD0A-A8DDCF579776}" name="Table14" displayName="Table14" ref="A43:F64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A43:F64" xr:uid="{6D0A6911-06A7-4838-BD0A-A8DDCF579776}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A2784BE7-DFA5-4686-8F2D-5133D7E0FFA1}" name="Product Name" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A2784BE7-DFA5-4686-8F2D-5133D7E0FFA1}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{4312FECA-E98E-4BB9-983E-31D87A2A5CC1}" name="Brand Name 1" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{6644C263-E8F5-4E6A-A2AD-7ACAFDF122E1}" name="Brand name 2" dataDxfId="3">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{C3F46B3E-4B09-4170-9824-006A3D404E43}" name="Price 1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{9A0C45A0-825A-42D5-B1E2-F875F23E5F9F}" name="Price Filled" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{9A0C45A0-825A-42D5-B1E2-F875F23E5F9F}" name="Price Filled" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AB8EA61F-5ED8-4095-93C6-2DE4622642EF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{AB8EA61F-5ED8-4095-93C6-2DE4622642EF}" name="Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -625,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7141A665-402E-4458-90D0-9E79D50B7635}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,7 +1054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -874,7 +1069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -889,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -904,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -919,7 +1114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -934,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -947,7 +1142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -962,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -977,7 +1172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -992,7 +1187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1007,482 +1202,551 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="str">
+      <c r="C44" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>HP</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D44" s="7">
         <v>45000</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E44" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>45000</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I44" s="9">
         <f>MODE(Table14[Price 1])</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="7" t="str">
+      <c r="C45" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>Dell</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>5000</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="str">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>Unknown</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D46" s="7">
         <v>30000</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E46" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>30000</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="7" t="str">
+      <c r="C47" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>Vivo</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D47" s="7">
         <v>15000</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E47" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>15000</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7" t="str">
+      <c r="C48" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>Samsung</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D48" s="7">
         <v>20000</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E48" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>20000</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Apple</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>5000</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Classmate</v>
-      </c>
-      <c r="D36" s="7">
-        <v>50</v>
-      </c>
-      <c r="E36" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>50</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Diya</v>
-      </c>
-      <c r="D37" s="7">
-        <v>45</v>
-      </c>
-      <c r="E37" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>45</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Lexi</v>
-      </c>
-      <c r="D38" s="7">
-        <v>10</v>
-      </c>
-      <c r="E38" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>10</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Linc</v>
-      </c>
-      <c r="D39" s="7">
-        <v>15</v>
-      </c>
-      <c r="E39" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>15</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Ibell</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>5000</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Unknown</v>
-      </c>
-      <c r="D41" s="7">
-        <v>7000</v>
-      </c>
-      <c r="E41" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>7000</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Samsung</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>5000</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>LG</v>
-      </c>
-      <c r="D43" s="7">
-        <v>13000</v>
-      </c>
-      <c r="E43" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>13000</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Whirlpool</v>
-      </c>
-      <c r="D44" s="7">
-        <v>12000</v>
-      </c>
-      <c r="E44" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>12000</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Preethi</v>
-      </c>
-      <c r="D45" s="7">
-        <v>8000</v>
-      </c>
-      <c r="E45" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>8000</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Prestige</v>
-      </c>
-      <c r="D46" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E46" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>5000</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Atomberg</v>
-      </c>
-      <c r="D47" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E47" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>5000</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="str">
-        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Unknown</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3000</v>
-      </c>
-      <c r="E48" s="7">
-        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>3000</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C49" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
-        <v>Dorel</v>
-      </c>
-      <c r="D49" s="7">
-        <v>3000</v>
-      </c>
+        <v>Apple</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Classmate</v>
+      </c>
+      <c r="D50" s="7">
+        <v>50</v>
+      </c>
+      <c r="E50" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>50</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Diya</v>
+      </c>
+      <c r="D51" s="7">
+        <v>45</v>
+      </c>
+      <c r="E51" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>45</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Lexi</v>
+      </c>
+      <c r="D52" s="7">
+        <v>10</v>
+      </c>
+      <c r="E52" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Linc</v>
+      </c>
+      <c r="D53" s="7">
+        <v>15</v>
+      </c>
+      <c r="E53" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>15</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Ibell</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>5000</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Unknown</v>
+      </c>
+      <c r="D55" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E55" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>7000</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Samsung</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>5000</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>LG</v>
+      </c>
+      <c r="D57" s="7">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>13000</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Whirlpool</v>
+      </c>
+      <c r="D58" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>12000</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Preethi</v>
+      </c>
+      <c r="D59" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>8000</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Prestige</v>
+      </c>
+      <c r="D60" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>5000</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Atomberg</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>5000</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Unknown</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>3000</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B63" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="7" t="str">
+        <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
+        <v>Dorel</v>
+      </c>
+      <c r="D63" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E63" s="7">
+        <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
+        <v>3000</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="7" t="str">
+      <c r="C64" s="7" t="str">
         <f>IF(ISBLANK(Table14[[#This Row],[Brand Name 1]]),"Unknown",Table14[[#This Row],[Brand Name 1]])</f>
         <v>Marco</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D64" s="7">
         <v>2000</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E64" s="7">
         <f>IF(ISBLANK(Table14[[#This Row],[Price 1]]),MODE(Table14[Price 1]),Table14[[#This Row],[Price 1]])</f>
         <v>2000</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A39:E39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
